--- a/Source/DK.Web/ReportTemplates/7A8BC.xlsx
+++ b/Source/DK.Web/ReportTemplates/7A8BC.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AACE82-D32D-48AA-9545-E9D561508043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="1296" yWindow="2676" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="__row__">Sheet1!$A$17</definedName>
+    <definedName name="__sum__">Sheet1!$D$18</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <r>
       <t xml:space="preserve">BỘ CÔNG AN
@@ -102,9 +104,6 @@
     <t>Tổng cộng</t>
   </si>
   <si>
-    <t>&lt;#row.&gt;</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -176,11 +175,32 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>&lt;#row.No&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.Code&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.Name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.NamSuDung&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.GiaTriConLai&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.GhiChu&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sum.NamSuDung&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -306,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,6 +358,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -362,20 +397,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,186 +679,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="E15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>1</v>
       </c>
@@ -855,50 +878,62 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="13" t="s">
+    <row r="19" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
@@ -915,14 +950,6 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Source/DK.Web/ReportTemplates/7A8BC.xlsx
+++ b/Source/DK.Web/ReportTemplates/7A8BC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AACE82-D32D-48AA-9545-E9D561508043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1296" yWindow="2676" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="2670" windowWidth="23040" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -30,23 +29,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
-  <si>
-    <r>
-      <t xml:space="preserve">BỘ CÔNG AN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>…………………………………
-…………………………………</t>
-    </r>
-  </si>
   <si>
     <r>
       <rPr>
@@ -116,9 +98,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Mẫu &lt;#pattern&gt; ban hành kèm theo Thông tư số …………../2020/TT-BCA ngày …../…/2020</t>
-  </si>
-  <si>
     <t>&lt;#title&gt;</t>
   </si>
   <si>
@@ -196,11 +175,18 @@
   <si>
     <t>&lt;#sum.NamSuDung&gt;</t>
   </si>
+  <si>
+    <t>Mẫu &lt;#pattern&gt; ban hành kèm theo Thông tư số 109/2020/TT-BCA ngày 10/10/2020</t>
+  </si>
+  <si>
+    <t>BỘ CÔNG AN
+Viện Khoa Học Hình Sự</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,41 +350,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,39 +665,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
+    <row r="1" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="21" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
     </row>
-    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="20"/>
@@ -719,146 +705,146 @@
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>1</v>
       </c>
@@ -878,54 +864,62 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="E17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="F17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="24" t="s">
         <v>21</v>
       </c>
+      <c r="E18" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="18"/>
+    <row r="19" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E19:F19"/>
@@ -942,14 +936,6 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Source/DK.Web/ReportTemplates/7A8BC.xlsx
+++ b/Source/DK.Web/ReportTemplates/7A8BC.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <r>
       <rPr>
@@ -181,6 +181,9 @@
   <si>
     <t>BỘ CÔNG AN
 Viện Khoa Học Hình Sự</t>
+  </si>
+  <si>
+    <t>&lt;#sum.GiaTriConLai&gt;</t>
   </si>
 </sst>
 </file>
@@ -312,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -332,15 +335,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -350,12 +347,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -365,9 +362,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -385,6 +379,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,183 +690,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="18" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="18" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="18" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="18" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="18" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="18" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="18" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="18" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>2</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>4</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>5</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>6</v>
       </c>
     </row>
@@ -868,60 +874,50 @@
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="10" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7"/>
+      <c r="E18" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="17" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A2:F2"/>
@@ -936,6 +932,16 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Source/DK.Web/ReportTemplates/7A8BC.xlsx
+++ b/Source/DK.Web/ReportTemplates/7A8BC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E7558-296D-4476-9632-C89F2C750FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="2670" windowWidth="23040" windowHeight="12210"/>
+    <workbookView xWindow="1704" yWindow="1512" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -189,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,12 +348,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -379,18 +392,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,166 +672,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="18" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
@@ -850,7 +851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>1</v>
       </c>
@@ -870,7 +871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -883,38 +884,38 @@
       <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="15" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -934,14 +935,14 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
